--- a/R_DataMining/NN_Backpropagation.xlsx
+++ b/R_DataMining/NN_Backpropagation.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woosa7/Documents/ADSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woosa7/Documents/R_Study/R_DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35600" yWindow="2300" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -300,6 +300,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>64180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="6134099"/>
+          <a:ext cx="9055100" cy="6249081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,7 +617,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -796,5 +845,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>